--- a/data/coded_segments/zm_7_3.xlsx
+++ b/data/coded_segments/zm_7_3.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Whiting/Repositories/amr-db/data/coded_segments_rename/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FAF0ED5-D5E9-F14F-822B-F4837552C6DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1678,7 +1674,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1828,10 +1824,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1854,7 +1853,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1866,7 +1865,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1883,9 +1882,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1913,14 +1912,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1948,6 +1964,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2099,7 +2132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M204"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -2157,7 +2190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -2198,7 +2231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -2239,7 +2272,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -2403,7 +2436,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -2444,7 +2477,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -2731,7 +2764,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -3059,7 +3092,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
@@ -3182,7 +3215,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
@@ -3264,7 +3297,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
@@ -3838,7 +3871,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>13</v>
       </c>
@@ -4453,7 +4486,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>13</v>
       </c>
@@ -4494,7 +4527,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>13</v>
       </c>
@@ -4576,7 +4609,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>13</v>
       </c>
@@ -4658,7 +4691,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -4699,7 +4732,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>13</v>
       </c>
@@ -4740,7 +4773,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>13</v>
       </c>
@@ -4822,7 +4855,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>13</v>
       </c>
@@ -4863,7 +4896,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>13</v>
       </c>
@@ -4904,7 +4937,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>13</v>
       </c>
@@ -4945,7 +4978,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>13</v>
       </c>
@@ -4986,7 +5019,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="98" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>13</v>
       </c>
@@ -5027,7 +5060,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>13</v>
       </c>
@@ -5109,7 +5142,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>13</v>
       </c>
@@ -5150,7 +5183,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>13</v>
       </c>
@@ -8143,7 +8176,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>13</v>
       </c>
@@ -8225,7 +8258,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>13</v>
       </c>
@@ -8307,7 +8340,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="126" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" ht="135" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>13</v>
       </c>
@@ -8389,7 +8422,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>13</v>
       </c>
@@ -8430,7 +8463,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>13</v>
       </c>
@@ -8471,7 +8504,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>13</v>
       </c>
@@ -8512,7 +8545,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>13</v>
       </c>
@@ -8553,7 +8586,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>13</v>
       </c>
@@ -10316,7 +10349,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>13</v>
       </c>
@@ -10357,7 +10390,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>13</v>
       </c>
@@ -10398,7 +10431,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>13</v>
       </c>
@@ -10439,7 +10472,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>13</v>
       </c>

--- a/data/coded_segments/zm_7_3.xlsx
+++ b/data/coded_segments/zm_7_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FAF0ED5-D5E9-F14F-822B-F4837552C6DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B16873D9-9A00-4145-B8C5-EDD13CCB6021}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="547">
   <si>
     <t>Color</t>
   </si>
@@ -1472,22 +1472,25 @@
     <t>Nitrofurantoin</t>
   </si>
   <si>
-    <t>3: 1354</t>
+    <t>3: 1355</t>
   </si>
   <si>
     <t>3: 1357</t>
   </si>
   <si>
-    <t xml:space="preserve"> &gt;32</t>
-  </si>
-  <si>
-    <t>3: 1380</t>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>1/31/19 15:05:25</t>
+  </si>
+  <si>
+    <t>3: 1381</t>
   </si>
   <si>
     <t>3: 1383</t>
   </si>
   <si>
-    <t xml:space="preserve"> &gt;64</t>
+    <t>1/31/19 15:05:30</t>
   </si>
   <si>
     <t>3: 1528</t>
@@ -1521,12 +1524,6 @@
   </si>
   <si>
     <t>8/1/18 11:11:00</t>
-  </si>
-  <si>
-    <t>3: 1355</t>
-  </si>
-  <si>
-    <t>3: 1381</t>
   </si>
   <si>
     <t>3: 1405</t>
@@ -1669,6 +1666,57 @@
 Downes, S. Shah, J. T. Rudrik, G. R. Pupp, W. J. Brown, D. Cardo, and S. K. 
 Fridkin. 2003. Infection with vancomycin-resistant Staphylococcus aureus 
 containing the vanA resistance gene. N. Engl. J. Med. 348:1342–1347</t>
+  </si>
+  <si>
+    <t>1/31/19 15:00:49</t>
+  </si>
+  <si>
+    <t>1/31/19 15:01:21</t>
+  </si>
+  <si>
+    <t>1/31/19 15:01:35</t>
+  </si>
+  <si>
+    <t>1/31/19 15:01:53</t>
+  </si>
+  <si>
+    <t>1/31/19 15:02:07</t>
+  </si>
+  <si>
+    <t>1/31/19 15:02:16</t>
+  </si>
+  <si>
+    <t>1/31/19 15:03:29</t>
+  </si>
+  <si>
+    <t>1/31/19 15:03:38</t>
+  </si>
+  <si>
+    <t>1/31/19 15:03:46</t>
+  </si>
+  <si>
+    <t>1/31/19 15:04:04</t>
+  </si>
+  <si>
+    <t>1/31/19 15:04:13</t>
+  </si>
+  <si>
+    <t>1/31/19 15:04:21</t>
+  </si>
+  <si>
+    <t>1/31/19 15:04:27</t>
+  </si>
+  <si>
+    <t>1/31/19 15:05:37</t>
+  </si>
+  <si>
+    <t>1/31/19 15:05:43</t>
+  </si>
+  <si>
+    <t>1/31/19 15:05:59</t>
+  </si>
+  <si>
+    <t>1/31/19 15:06:06</t>
   </si>
 </sst>
 </file>
@@ -2133,7 +2181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M204"/>
+  <dimension ref="A1:M221"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9022,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>469</v>
+        <v>303</v>
       </c>
       <c r="J168" s="3">
         <v>3</v>
       </c>
       <c r="K168" s="4">
-        <v>1.6445999999999999E-2</v>
+        <v>1.6446466750726387E-2</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>20</v>
+        <v>469</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
     </row>
     <row r="169" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9054,28 +9102,28 @@
         <v>78</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H169" s="3">
         <v>0</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>472</v>
+        <v>297</v>
       </c>
       <c r="J169" s="3">
         <v>3</v>
       </c>
       <c r="K169" s="4">
-        <v>1.6445999999999999E-2</v>
+        <v>1.6446466750726387E-2</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>20</v>
+        <v>469</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
     </row>
     <row r="170" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9095,10 +9143,10 @@
         <v>78</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H170" s="3">
         <v>0</v>
@@ -9136,10 +9184,10 @@
         <v>78</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H171" s="3">
         <v>0</v>
@@ -9177,16 +9225,16 @@
         <v>78</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H172" s="3">
         <v>0</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J172" s="3">
         <v>3</v>
@@ -9218,16 +9266,16 @@
         <v>95</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H173" s="3">
         <v>0</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J173" s="3">
         <v>11</v>
@@ -9239,7 +9287,7 @@
         <v>20</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9280,7 +9328,7 @@
         <v>20</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9300,7 +9348,7 @@
         <v>100</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>468</v>
@@ -9321,7 +9369,7 @@
         <v>20</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="176" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9362,7 +9410,7 @@
         <v>20</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9382,10 +9430,10 @@
         <v>101</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H177" s="3">
         <v>0</v>
@@ -9403,7 +9451,7 @@
         <v>20</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="178" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9444,7 +9492,7 @@
         <v>20</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="179" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9464,10 +9512,10 @@
         <v>104</v>
       </c>
       <c r="F179" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G179" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="H179" s="3">
         <v>0</v>
@@ -9485,7 +9533,7 @@
         <v>20</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9526,7 +9574,7 @@
         <v>20</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="181" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9546,10 +9594,10 @@
         <v>105</v>
       </c>
       <c r="F181" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G181" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="H181" s="3">
         <v>0</v>
@@ -9567,7 +9615,7 @@
         <v>20</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="182" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9608,7 +9656,7 @@
         <v>20</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="183" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9628,10 +9676,10 @@
         <v>108</v>
       </c>
       <c r="F183" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G183" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="H183" s="3">
         <v>0</v>
@@ -9649,7 +9697,7 @@
         <v>20</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="184" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9690,7 +9738,7 @@
         <v>20</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="185" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9710,10 +9758,10 @@
         <v>109</v>
       </c>
       <c r="F185" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G185" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="H185" s="3">
         <v>0</v>
@@ -9731,7 +9779,7 @@
         <v>20</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9772,7 +9820,7 @@
         <v>20</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9792,10 +9840,10 @@
         <v>110</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H187" s="3">
         <v>0</v>
@@ -9813,7 +9861,7 @@
         <v>20</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="188" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9854,7 +9902,7 @@
         <v>20</v>
       </c>
       <c r="M188" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="189" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9874,10 +9922,10 @@
         <v>114</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H189" s="3">
         <v>0</v>
@@ -9895,7 +9943,7 @@
         <v>20</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="190" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9936,7 +9984,7 @@
         <v>20</v>
       </c>
       <c r="M190" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="191" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9956,16 +10004,16 @@
         <v>117</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H191" s="3">
         <v>0</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J191" s="3">
         <v>3</v>
@@ -9977,7 +10025,7 @@
         <v>20</v>
       </c>
       <c r="M191" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="192" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10000,13 +10048,13 @@
         <v>141</v>
       </c>
       <c r="G192" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H192" s="3">
+        <v>0</v>
+      </c>
+      <c r="I192" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="H192" s="3">
-        <v>0</v>
-      </c>
-      <c r="I192" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="J192" s="3">
         <v>19</v>
@@ -10018,7 +10066,7 @@
         <v>20</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="193" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10038,10 +10086,10 @@
         <v>136</v>
       </c>
       <c r="F193" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G193" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>497</v>
       </c>
       <c r="H193" s="3">
         <v>0</v>
@@ -10059,7 +10107,7 @@
         <v>20</v>
       </c>
       <c r="M193" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="194" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10079,16 +10127,16 @@
         <v>140</v>
       </c>
       <c r="F194" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G194" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="G194" s="1" t="s">
+      <c r="H194" s="3">
+        <v>0</v>
+      </c>
+      <c r="I194" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="H194" s="3">
-        <v>0</v>
-      </c>
-      <c r="I194" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="J194" s="3">
         <v>5</v>
@@ -10100,7 +10148,7 @@
         <v>20</v>
       </c>
       <c r="M194" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="195" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10120,7 +10168,7 @@
         <v>144</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>33</v>
@@ -10129,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J195" s="3">
         <v>9</v>
@@ -10141,7 +10189,7 @@
         <v>20</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="196" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10161,16 +10209,16 @@
         <v>148</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G196" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H196" s="3">
+        <v>0</v>
+      </c>
+      <c r="I196" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="H196" s="3">
-        <v>0</v>
-      </c>
-      <c r="I196" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="J196" s="3">
         <v>30</v>
@@ -10182,7 +10230,7 @@
         <v>20</v>
       </c>
       <c r="M196" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="197" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10202,16 +10250,16 @@
         <v>152</v>
       </c>
       <c r="F197" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G197" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="H197" s="3">
+        <v>0</v>
+      </c>
+      <c r="I197" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="H197" s="3">
-        <v>0</v>
-      </c>
-      <c r="I197" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="J197" s="3">
         <v>11</v>
@@ -10223,7 +10271,7 @@
         <v>20</v>
       </c>
       <c r="M197" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="198" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10243,16 +10291,16 @@
         <v>156</v>
       </c>
       <c r="F198" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G198" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="G198" s="1" t="s">
+      <c r="H198" s="3">
+        <v>0</v>
+      </c>
+      <c r="I198" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="H198" s="3">
-        <v>0</v>
-      </c>
-      <c r="I198" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="J198" s="3">
         <v>4</v>
@@ -10264,7 +10312,7 @@
         <v>20</v>
       </c>
       <c r="M198" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="199" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10281,19 +10329,19 @@
         <v>436</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F199" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G199" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="G199" s="1" t="s">
+      <c r="H199" s="3">
+        <v>0</v>
+      </c>
+      <c r="I199" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="H199" s="3">
-        <v>0</v>
-      </c>
-      <c r="I199" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="J199" s="3">
         <v>5</v>
@@ -10305,7 +10353,7 @@
         <v>20</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="200" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10325,16 +10373,16 @@
         <v>168</v>
       </c>
       <c r="F200" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G200" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="H200" s="3">
+        <v>0</v>
+      </c>
+      <c r="I200" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="H200" s="3">
-        <v>0</v>
-      </c>
-      <c r="I200" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="J200" s="3">
         <v>10</v>
@@ -10346,7 +10394,7 @@
         <v>20</v>
       </c>
       <c r="M200" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="201" spans="1:13" ht="45" x14ac:dyDescent="0.2">
@@ -10360,22 +10408,22 @@
         <v>14</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F201" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G201" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="H201" s="3">
+        <v>0</v>
+      </c>
+      <c r="I201" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="H201" s="3">
-        <v>0</v>
-      </c>
-      <c r="I201" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="J201" s="3">
         <v>137</v>
@@ -10387,7 +10435,7 @@
         <v>20</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="202" spans="1:13" ht="45" x14ac:dyDescent="0.2">
@@ -10401,22 +10449,22 @@
         <v>14</v>
       </c>
       <c r="D202" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F202" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E202" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="F202" s="1" t="s">
+      <c r="G202" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="G202" s="1" t="s">
+      <c r="H202" s="3">
+        <v>0</v>
+      </c>
+      <c r="I202" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="H202" s="3">
-        <v>0</v>
-      </c>
-      <c r="I202" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="J202" s="3">
         <v>137</v>
@@ -10428,7 +10476,7 @@
         <v>20</v>
       </c>
       <c r="M202" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="203" spans="1:13" ht="60" x14ac:dyDescent="0.2">
@@ -10442,22 +10490,22 @@
         <v>14</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F203" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G203" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="H203" s="3">
+        <v>0</v>
+      </c>
+      <c r="I203" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="H203" s="3">
-        <v>0</v>
-      </c>
-      <c r="I203" s="2" t="s">
-        <v>527</v>
       </c>
       <c r="J203" s="3">
         <v>157</v>
@@ -10469,7 +10517,7 @@
         <v>20</v>
       </c>
       <c r="M203" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="204" spans="1:13" ht="75" x14ac:dyDescent="0.2">
@@ -10483,22 +10531,22 @@
         <v>14</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F204" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G204" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="G204" s="1" t="s">
+      <c r="H204" s="3">
+        <v>0</v>
+      </c>
+      <c r="I204" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="H204" s="3">
-        <v>0</v>
-      </c>
-      <c r="I204" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="J204" s="3">
         <v>299</v>
@@ -10510,7 +10558,704 @@
         <v>20</v>
       </c>
       <c r="M204" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A205" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H205" s="3">
+        <v>0</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J205" s="3">
+        <v>3</v>
+      </c>
+      <c r="K205" s="4">
+        <v>1.0606328442637441E-2</v>
+      </c>
+      <c r="L205" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M205" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A206" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H206" s="3">
+        <v>0</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J206" s="3">
+        <v>2</v>
+      </c>
+      <c r="K206" s="4">
+        <v>7.0708856284249604E-3</v>
+      </c>
+      <c r="L206" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M206" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A207" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H207" s="3">
+        <v>0</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J207" s="3">
+        <v>3</v>
+      </c>
+      <c r="K207" s="4">
+        <v>1.0606328442637441E-2</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M207" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A208" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H208" s="3">
+        <v>0</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J208" s="3">
+        <v>2</v>
+      </c>
+      <c r="K208" s="4">
+        <v>7.0708856284249604E-3</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M208" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A209" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H209" s="3">
+        <v>0</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J209" s="3">
+        <v>2</v>
+      </c>
+      <c r="K209" s="4">
+        <v>7.0708856284249604E-3</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M209" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A210" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H210" s="3">
+        <v>0</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J210" s="3">
+        <v>3</v>
+      </c>
+      <c r="K210" s="4">
+        <v>1.0606328442637441E-2</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M210" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A211" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H211" s="3">
+        <v>0</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J211" s="3">
+        <v>2</v>
+      </c>
+      <c r="K211" s="4">
+        <v>9.8381622312951941E-3</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M211" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A212" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H212" s="3">
+        <v>0</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J212" s="3">
+        <v>2</v>
+      </c>
+      <c r="K212" s="4">
+        <v>9.8381622312951941E-3</v>
+      </c>
+      <c r="L212" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M212" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A213" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H213" s="3">
+        <v>0</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J213" s="3">
+        <v>2</v>
+      </c>
+      <c r="K213" s="4">
+        <v>9.8381622312951941E-3</v>
+      </c>
+      <c r="L213" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M213" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A214" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H214" s="3">
+        <v>0</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J214" s="3">
+        <v>2</v>
+      </c>
+      <c r="K214" s="4">
+        <v>9.8381622312951941E-3</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M214" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A215" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H215" s="3">
+        <v>0</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="J215" s="3">
+        <v>2</v>
+      </c>
+      <c r="K215" s="4">
+        <v>9.8381622312951941E-3</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M215" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A216" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H216" s="3">
+        <v>0</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J216" s="3">
+        <v>3</v>
+      </c>
+      <c r="K216" s="4">
+        <v>1.4757243346942792E-2</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M216" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A217" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H217" s="3">
+        <v>0</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J217" s="3">
+        <v>3</v>
+      </c>
+      <c r="K217" s="4">
+        <v>1.4757243346942792E-2</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M217" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A218" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H218" s="3">
+        <v>0</v>
+      </c>
+      <c r="I218" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J218" s="3">
+        <v>3</v>
+      </c>
+      <c r="K218" s="4">
+        <v>1.6446466750726387E-2</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M218" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A219" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="H219" s="3">
+        <v>0</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J219" s="3">
+        <v>3</v>
+      </c>
+      <c r="K219" s="4">
+        <v>1.6446466750726387E-2</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M219" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A220" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="H220" s="3">
+        <v>0</v>
+      </c>
+      <c r="I220" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J220" s="3">
+        <v>3</v>
+      </c>
+      <c r="K220" s="4">
+        <v>1.6446466750726387E-2</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M220" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A221" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H221" s="3">
+        <v>0</v>
+      </c>
+      <c r="I221" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J221" s="3">
+        <v>3</v>
+      </c>
+      <c r="K221" s="4">
+        <v>1.6446466750726387E-2</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M221" s="1" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
